--- a/Experiment/Orders_PILOT/PAR01_RUN04.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN04.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24424"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\3DFaces\Scan Orders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705A531B-C024-400A-A60F-9900923F4A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{705A531B-C024-400A-A60F-9900923F4A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{642E7C02-4550-488F-B802-0882AE183515}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{07BF48E2-6ED9-4E46-8EF2-A48808502AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="57">
   <si>
     <t>Trial</t>
   </si>
@@ -57,155 +57,161 @@
     <t>NULL</t>
   </si>
   <si>
+    <t>MonocL</t>
+  </si>
+  <si>
+    <t>Face19_L.jpg</t>
+  </si>
+  <si>
+    <t>Face3_L.jpg</t>
+  </si>
+  <si>
+    <t>Face12_L.jpg</t>
+  </si>
+  <si>
+    <t>Face14_L.jpg</t>
+  </si>
+  <si>
+    <t>Face6_L.jpg</t>
+  </si>
+  <si>
+    <t>Face17_L.jpg</t>
+  </si>
+  <si>
+    <t>Face20_L.jpg</t>
+  </si>
+  <si>
+    <t>Face23_L.jpg</t>
+  </si>
+  <si>
+    <t>Face4_L.jpg</t>
+  </si>
+  <si>
+    <t>Face10_L.jpg</t>
+  </si>
+  <si>
+    <t>Face7_L.jpg</t>
+  </si>
+  <si>
+    <t>Face22_L.jpg</t>
+  </si>
+  <si>
+    <t>Face16_L.jpg</t>
+  </si>
+  <si>
+    <t>Face13_L.jpg</t>
+  </si>
+  <si>
+    <t>Face2_L.jpg</t>
+  </si>
+  <si>
+    <t>Face15_L.jpg</t>
+  </si>
+  <si>
+    <t>Face21_L.jpg</t>
+  </si>
+  <si>
+    <t>Face18_L.jpg</t>
+  </si>
+  <si>
+    <t>Face11_L.jpg</t>
+  </si>
+  <si>
+    <t>Face1_L.jpg</t>
+  </si>
+  <si>
+    <t>Face8_L.jpg</t>
+  </si>
+  <si>
+    <t>Face5_L.jpg</t>
+  </si>
+  <si>
+    <t>Face9_L.jpg</t>
+  </si>
+  <si>
     <t>Pseudo</t>
   </si>
   <si>
+    <t>Face10_R.jpg</t>
+  </si>
+  <si>
+    <t>Face19_R.jpg</t>
+  </si>
+  <si>
+    <t>Face1_R.jpg</t>
+  </si>
+  <si>
+    <t>Face15_R.jpg</t>
+  </si>
+  <si>
+    <t>Face5_R.jpg</t>
+  </si>
+  <si>
+    <t>Face13_R.jpg</t>
+  </si>
+  <si>
+    <t>Face9_R.jpg</t>
+  </si>
+  <si>
+    <t>Face7_R.jpg</t>
+  </si>
+  <si>
+    <t>Face22_R.jpg</t>
+  </si>
+  <si>
+    <t>Face17_R.jpg</t>
+  </si>
+  <si>
+    <t>Face6_R.jpg</t>
+  </si>
+  <si>
+    <t>Face20_R.jpg</t>
+  </si>
+  <si>
+    <t>Face23_R.jpg</t>
+  </si>
+  <si>
+    <t>Face18_R.jpg</t>
+  </si>
+  <si>
+    <t>Face14_R.jpg</t>
+  </si>
+  <si>
+    <t>Face2_R.jpg</t>
+  </si>
+  <si>
+    <t>Face11_R.jpg</t>
+  </si>
+  <si>
+    <t>Face16_R.jpg</t>
+  </si>
+  <si>
+    <t>Face21_R.jpg</t>
+  </si>
+  <si>
+    <t>Face3_R.jpg</t>
+  </si>
+  <si>
+    <t>Face4_R.jpg</t>
+  </si>
+  <si>
+    <t>Face8_R.jpg</t>
+  </si>
+  <si>
+    <t>Face12_R.jpg</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
     <t>2D</t>
-  </si>
-  <si>
-    <t>3D</t>
-  </si>
-  <si>
-    <t>MonocL</t>
-  </si>
-  <si>
-    <t>Face19_L.jpg</t>
-  </si>
-  <si>
-    <t>Face3_L.jpg</t>
-  </si>
-  <si>
-    <t>Face12_L.jpg</t>
-  </si>
-  <si>
-    <t>Face14_L.jpg</t>
-  </si>
-  <si>
-    <t>Face6_L.jpg</t>
-  </si>
-  <si>
-    <t>Face17_L.jpg</t>
-  </si>
-  <si>
-    <t>Face20_L.jpg</t>
-  </si>
-  <si>
-    <t>Face4_L.jpg</t>
-  </si>
-  <si>
-    <t>Face10_L.jpg</t>
-  </si>
-  <si>
-    <t>Face7_L.jpg</t>
-  </si>
-  <si>
-    <t>Face22_L.jpg</t>
-  </si>
-  <si>
-    <t>Face16_L.jpg</t>
-  </si>
-  <si>
-    <t>Face13_L.jpg</t>
-  </si>
-  <si>
-    <t>Face2_L.jpg</t>
-  </si>
-  <si>
-    <t>Face15_L.jpg</t>
-  </si>
-  <si>
-    <t>Face21_L.jpg</t>
-  </si>
-  <si>
-    <t>Face18_L.jpg</t>
-  </si>
-  <si>
-    <t>Face11_L.jpg</t>
-  </si>
-  <si>
-    <t>Face1_L.jpg</t>
-  </si>
-  <si>
-    <t>Face8_L.jpg</t>
-  </si>
-  <si>
-    <t>Face5_L.jpg</t>
-  </si>
-  <si>
-    <t>Face9_L.jpg</t>
-  </si>
-  <si>
-    <t>Face10_R.jpg</t>
-  </si>
-  <si>
-    <t>Face19_R.jpg</t>
-  </si>
-  <si>
-    <t>Face1_R.jpg</t>
-  </si>
-  <si>
-    <t>Face15_R.jpg</t>
-  </si>
-  <si>
-    <t>Face5_R.jpg</t>
-  </si>
-  <si>
-    <t>Face13_R.jpg</t>
-  </si>
-  <si>
-    <t>Face9_R.jpg</t>
-  </si>
-  <si>
-    <t>Face7_R.jpg</t>
-  </si>
-  <si>
-    <t>Face22_R.jpg</t>
-  </si>
-  <si>
-    <t>Face17_R.jpg</t>
-  </si>
-  <si>
-    <t>Face6_R.jpg</t>
-  </si>
-  <si>
-    <t>Face20_R.jpg</t>
-  </si>
-  <si>
-    <t>Face18_R.jpg</t>
-  </si>
-  <si>
-    <t>Face14_R.jpg</t>
-  </si>
-  <si>
-    <t>Face2_R.jpg</t>
-  </si>
-  <si>
-    <t>Face11_R.jpg</t>
-  </si>
-  <si>
-    <t>Face16_R.jpg</t>
-  </si>
-  <si>
-    <t>Face21_R.jpg</t>
-  </si>
-  <si>
-    <t>Face3_R.jpg</t>
-  </si>
-  <si>
-    <t>Face4_R.jpg</t>
-  </si>
-  <si>
-    <t>Face8_R.jpg</t>
-  </si>
-  <si>
-    <t>Face12_R.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,24 +570,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D52182-6637-46A4-90D9-371716FEC978}">
-  <dimension ref="A1:R194"/>
+  <dimension ref="A1:R202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -612,18 +618,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -637,18 +643,18 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -662,18 +668,18 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -687,18 +693,18 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -712,18 +718,18 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -737,18 +743,18 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -762,18 +768,18 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -787,18 +793,18 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -812,18 +818,18 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -837,18 +843,18 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -862,18 +868,18 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -887,18 +893,18 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -912,18 +918,18 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -937,18 +943,18 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -962,18 +968,18 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -987,18 +993,18 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1012,18 +1018,18 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1037,18 +1043,18 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1062,18 +1068,18 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1087,18 +1093,18 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1112,18 +1118,18 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1137,18 +1143,18 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1162,18 +1168,18 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1187,58 +1193,57 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18">
       <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1250,21 +1255,21 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1276,21 +1281,21 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1302,21 +1307,21 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1328,24 +1333,24 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="1"/>
@@ -1354,24 +1359,24 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="1"/>
@@ -1380,21 +1385,21 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1406,21 +1411,21 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1432,21 +1437,21 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1458,21 +1463,21 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1484,21 +1489,21 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1510,21 +1515,21 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1536,21 +1541,21 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1562,21 +1567,21 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1588,21 +1593,21 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1614,21 +1619,21 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1640,18 +1645,18 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>22</v>
@@ -1666,18 +1671,18 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>26</v>
@@ -1692,21 +1697,21 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1718,21 +1723,21 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1744,21 +1749,21 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -1770,21 +1775,21 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -1796,283 +1801,295 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18">
       <c r="A50">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>3</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>3</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -2081,44 +2098,44 @@
         <v>17</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>36</v>
@@ -2127,940 +2144,940 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="3">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E70" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74">
-        <v>0</v>
-      </c>
-      <c r="B74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>4</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="3">
-        <v>1</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>4</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="3">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>4</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C77" s="3">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>4</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>4</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>4</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97" s="3">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="3">
-        <v>1</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E97" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98">
-        <v>0</v>
-      </c>
-      <c r="B98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>5</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="3">
-        <v>1</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>5</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="3">
-        <v>1</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F100" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>5</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="3">
-        <v>1</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>5</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C102" s="3">
-        <v>1</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>5</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>5</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>5</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>5</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>5</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>5</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>37</v>
@@ -3069,361 +3086,371 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>5</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>5</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>5</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="3">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C121" s="3">
-        <v>1</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F121" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>0</v>
-      </c>
-      <c r="B122" s="1" t="s">
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>6</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="3">
-        <v>1</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="1"/>
-      <c r="F123" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>6</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" s="3">
-        <v>1</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E124" s="1"/>
-      <c r="F124" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>6</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" s="3">
-        <v>1</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E125" s="1"/>
-      <c r="F125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>6</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" s="3">
-        <v>1</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" s="1"/>
-      <c r="F126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>6</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="C127" s="3">
-        <v>1</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E127" s="1"/>
-      <c r="F127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>6</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>6</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C129" s="3">
         <v>1</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>6</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>6</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>6</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>6</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>6</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
@@ -3431,526 +3458,513 @@
       <c r="D134" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E134" s="1"/>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>6</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>6</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>6</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>6</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>6</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>6</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>6</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>6</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>6</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>6</v>
       </c>
       <c r="B145" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="3">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C145" s="3">
-        <v>1</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146">
-        <v>0</v>
-      </c>
-      <c r="B146" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B146" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C146" s="3">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>6</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="3">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>6</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>6</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="3">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>6</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" s="3">
+        <v>1</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="1"/>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>7</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>7</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C154" s="3">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>7</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C155" s="3">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>7</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>7</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="3">
-        <v>1</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F147" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>7</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="3">
-        <v>1</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>7</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="3">
-        <v>1</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F149" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>7</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="3">
-        <v>1</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F150" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>7</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="3">
-        <v>1</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F151" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>7</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="3">
-        <v>1</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F152" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>7</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="3">
-        <v>1</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F153" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>7</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="3">
-        <v>1</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F154" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>7</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="3">
-        <v>1</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>7</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="3">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>7</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="3">
-        <v>1</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>7</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="3">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="E160" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F161" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>7</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C162" s="3">
         <v>1</v>
@@ -3965,509 +3979,509 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>7</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C163" s="3">
         <v>1</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F163" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>7</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C164" s="3">
         <v>1</v>
       </c>
       <c r="D164" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>0</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="3">
         <v>23</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>7</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <v>7</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>0</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C170" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>8</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>8</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>8</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>8</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>8</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>8</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>8</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="3">
-        <v>1</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>8</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C178" s="3">
         <v>1</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F178" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>8</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C179" s="3">
         <v>1</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>8</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C180" s="3">
         <v>1</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>8</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C181" s="3">
         <v>1</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F181" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>8</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>8</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C183" s="3">
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>8</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C184" s="3">
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>8</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C185" s="3">
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>8</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C186" s="3">
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F186" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>8</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C187" s="3">
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>8</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C188" s="3">
         <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>23</v>
@@ -4476,114 +4490,274 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>8</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C189" s="3">
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F189" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>8</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C190" s="3">
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F190" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>8</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C191" s="3">
         <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>8</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C192" s="3">
         <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F192" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>8</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C193" s="3">
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>8</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C194" s="3">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>8</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C195" s="3">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>8</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C196" s="3">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>8</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C197" s="3">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>8</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C198" s="3">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>8</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C199" s="3">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F199" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>8</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F193" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194">
-        <v>0</v>
-      </c>
-      <c r="B194" s="1" t="s">
+      <c r="E201" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C202" s="3">
         <v>16</v>
       </c>
     </row>

--- a/Experiment/Orders_PILOT/PAR01_RUN04.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\3DFaces\Scan Orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\OneDrive - The University of Western Ontario\3DFaces_MD_2020\Scanning\Task\Scan Orders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{705A531B-C024-400A-A60F-9900923F4A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{642E7C02-4550-488F-B802-0882AE183515}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BD4D77-5837-4991-A7FC-DD70E4D9C512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{07BF48E2-6ED9-4E46-8EF2-A48808502AF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07BF48E2-6ED9-4E46-8EF2-A48808502AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="60">
   <si>
     <t>Trial</t>
   </si>
@@ -205,13 +205,22 @@
   </si>
   <si>
     <t>2D</t>
+  </si>
+  <si>
+    <t>CUE</t>
+  </si>
+  <si>
+    <t>UncoverCue.jpg</t>
+  </si>
+  <si>
+    <t>CoverCue.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,24 +579,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D52182-6637-46A4-90D9-371716FEC978}">
-  <dimension ref="A1:R202"/>
+  <dimension ref="A1:R206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,54 +616,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C3" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -668,7 +672,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -679,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -693,7 +697,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -704,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -718,7 +722,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -732,7 +736,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -743,7 +747,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -754,10 +758,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -768,7 +772,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -779,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -793,7 +797,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -804,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -818,7 +822,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -829,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -843,7 +847,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -854,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -868,7 +872,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -879,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -893,7 +897,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -904,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -918,7 +922,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -929,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -943,7 +947,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -954,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -968,7 +972,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -979,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -993,7 +997,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1018,7 +1022,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1029,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1043,7 +1047,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1068,7 +1072,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1093,7 +1097,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1104,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1118,7 +1122,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1129,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1143,7 +1147,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1154,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1168,7 +1172,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1179,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1193,7 +1197,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1218,70 +1222,63 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C29" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-    </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1292,10 +1289,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1307,7 +1304,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1318,10 +1315,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1333,7 +1330,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1344,10 +1341,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1359,7 +1356,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1370,13 +1367,13 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="1"/>
@@ -1385,7 +1382,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1396,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1411,7 +1408,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1422,13 +1419,13 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="1"/>
@@ -1437,7 +1434,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1448,10 +1445,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1463,7 +1460,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1474,10 +1471,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1489,7 +1486,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1500,10 +1497,10 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1515,7 +1512,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1526,10 +1523,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1541,7 +1538,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1552,10 +1549,10 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1567,7 +1564,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1578,10 +1575,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1593,7 +1590,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1604,10 +1601,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1619,7 +1616,7 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1630,10 +1627,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1645,7 +1642,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1656,10 +1653,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -1671,7 +1668,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1682,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1697,7 +1694,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1708,10 +1705,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1723,7 +1720,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1734,10 +1731,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1749,7 +1746,7 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1760,10 +1757,10 @@
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -1775,7 +1772,7 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1786,10 +1783,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -1801,7 +1798,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1812,10 +1809,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -1827,7 +1824,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1838,10 +1835,10 @@
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -1853,58 +1850,70 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0</v>
-      </c>
-      <c r="B52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C54" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
-      <c r="A53">
-        <v>3</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
-      <c r="A54">
-        <v>3</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1915,16 +1924,16 @@
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1935,16 +1944,16 @@
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -1955,16 +1964,16 @@
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
@@ -1975,16 +1984,16 @@
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -1995,16 +2004,16 @@
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2015,16 +2024,16 @@
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2035,16 +2044,16 @@
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2055,16 +2064,16 @@
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
@@ -2075,16 +2084,16 @@
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2095,16 +2104,16 @@
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3</v>
       </c>
@@ -2115,16 +2124,16 @@
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2135,16 +2144,16 @@
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
@@ -2155,16 +2164,16 @@
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -2175,16 +2184,16 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3</v>
       </c>
@@ -2195,16 +2204,16 @@
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2215,16 +2224,16 @@
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3</v>
       </c>
@@ -2235,16 +2244,16 @@
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2255,16 +2264,16 @@
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2275,16 +2284,16 @@
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
@@ -2295,16 +2304,16 @@
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3</v>
       </c>
@@ -2315,16 +2324,16 @@
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2335,67 +2344,67 @@
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>0</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C79" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>4</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="3">
-        <v>1</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>4</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79" s="3">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4</v>
       </c>
@@ -2406,16 +2415,16 @@
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2426,16 +2435,16 @@
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
@@ -2446,16 +2455,16 @@
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -2466,16 +2475,16 @@
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
@@ -2486,16 +2495,16 @@
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
@@ -2506,16 +2515,16 @@
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
@@ -2526,16 +2535,16 @@
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
@@ -2546,16 +2555,16 @@
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4</v>
       </c>
@@ -2566,16 +2575,16 @@
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2586,16 +2595,16 @@
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4</v>
       </c>
@@ -2606,16 +2615,16 @@
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F90" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2626,16 +2635,16 @@
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4</v>
       </c>
@@ -2646,16 +2655,16 @@
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2666,16 +2675,16 @@
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2686,16 +2695,16 @@
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2706,16 +2715,16 @@
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2726,16 +2735,16 @@
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2746,16 +2755,16 @@
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2766,16 +2775,16 @@
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2786,16 +2795,16 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2806,16 +2815,16 @@
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2826,67 +2835,67 @@
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>0</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C104" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>5</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C103" s="3">
-        <v>1</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>5</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C104" s="3">
-        <v>1</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F104" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5</v>
       </c>
@@ -2897,16 +2906,16 @@
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2917,16 +2926,16 @@
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2937,16 +2946,16 @@
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5</v>
       </c>
@@ -2957,16 +2966,16 @@
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5</v>
       </c>
@@ -2977,16 +2986,16 @@
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5</v>
       </c>
@@ -2997,16 +3006,16 @@
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5</v>
       </c>
@@ -3017,16 +3026,16 @@
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5</v>
       </c>
@@ -3037,16 +3046,16 @@
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5</v>
       </c>
@@ -3057,16 +3066,16 @@
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
@@ -3077,16 +3086,16 @@
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5</v>
       </c>
@@ -3097,16 +3106,16 @@
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5</v>
       </c>
@@ -3117,16 +3126,16 @@
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5</v>
       </c>
@@ -3137,16 +3146,16 @@
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5</v>
       </c>
@@ -3157,16 +3166,16 @@
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5</v>
       </c>
@@ -3177,16 +3186,16 @@
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5</v>
       </c>
@@ -3197,16 +3206,16 @@
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5</v>
       </c>
@@ -3217,16 +3226,16 @@
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5</v>
       </c>
@@ -3237,16 +3246,16 @@
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5</v>
       </c>
@@ -3257,16 +3266,16 @@
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3277,16 +3286,16 @@
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5</v>
       </c>
@@ -3297,16 +3306,16 @@
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3317,81 +3326,87 @@
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C127" s="3">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C128" s="3">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>0</v>
-      </c>
-      <c r="B127" s="1" t="s">
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C129" s="3">
+        <v>5</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C130" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>6</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" s="3">
-        <v>1</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" s="1"/>
-      <c r="F128" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>6</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" s="3">
-        <v>1</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E129" s="1"/>
-      <c r="F129" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>6</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" s="3">
-        <v>1</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E130" s="1"/>
-      <c r="F130" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>6</v>
       </c>
@@ -3402,14 +3417,14 @@
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>6</v>
       </c>
@@ -3420,14 +3435,14 @@
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3438,14 +3453,14 @@
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6</v>
       </c>
@@ -3456,13 +3471,14 @@
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E134" s="1"/>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6</v>
       </c>
@@ -3473,14 +3489,14 @@
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6</v>
       </c>
@@ -3491,14 +3507,14 @@
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6</v>
       </c>
@@ -3509,14 +3525,13 @@
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E137" s="1"/>
+        <v>15</v>
+      </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6</v>
       </c>
@@ -3527,14 +3542,14 @@
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6</v>
       </c>
@@ -3545,14 +3560,14 @@
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6</v>
       </c>
@@ -3563,14 +3578,14 @@
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6</v>
       </c>
@@ -3581,14 +3596,14 @@
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>6</v>
       </c>
@@ -3599,14 +3614,14 @@
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6</v>
       </c>
@@ -3617,14 +3632,14 @@
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6</v>
       </c>
@@ -3635,14 +3650,14 @@
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6</v>
       </c>
@@ -3653,14 +3668,14 @@
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
@@ -3671,14 +3686,14 @@
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
@@ -3689,14 +3704,14 @@
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
@@ -3707,14 +3722,14 @@
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6</v>
       </c>
@@ -3725,14 +3740,14 @@
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6</v>
       </c>
@@ -3743,14 +3758,14 @@
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3761,105 +3776,99 @@
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>0</v>
-      </c>
-      <c r="B152" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B152" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C152" s="3">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>6</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="3">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C155" s="3">
+        <v>5</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>7</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C153" s="3">
-        <v>1</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F153" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>7</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C154" s="3">
-        <v>1</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F154" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>7</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C155" s="3">
-        <v>1</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>7</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C156" s="3">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F156" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>7</v>
       </c>
@@ -3870,16 +3879,16 @@
         <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F157" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>7</v>
       </c>
@@ -3890,16 +3899,16 @@
         <v>1</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F158" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>7</v>
       </c>
@@ -3910,16 +3919,16 @@
         <v>1</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F159" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>7</v>
       </c>
@@ -3930,16 +3939,16 @@
         <v>1</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>7</v>
       </c>
@@ -3950,16 +3959,16 @@
         <v>1</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F161" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>7</v>
       </c>
@@ -3970,16 +3979,16 @@
         <v>1</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F162" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>7</v>
       </c>
@@ -3990,16 +3999,16 @@
         <v>1</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F163" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>7</v>
       </c>
@@ -4010,16 +4019,16 @@
         <v>1</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F164" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>7</v>
       </c>
@@ -4030,16 +4039,16 @@
         <v>1</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F165" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>7</v>
       </c>
@@ -4050,16 +4059,16 @@
         <v>1</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F166" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>7</v>
       </c>
@@ -4070,16 +4079,16 @@
         <v>1</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F167" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>7</v>
       </c>
@@ -4090,16 +4099,16 @@
         <v>1</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F168" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>7</v>
       </c>
@@ -4110,16 +4119,16 @@
         <v>1</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F169" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>7</v>
       </c>
@@ -4130,16 +4139,16 @@
         <v>1</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F170" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>7</v>
       </c>
@@ -4150,16 +4159,16 @@
         <v>1</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F171" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>7</v>
       </c>
@@ -4170,16 +4179,16 @@
         <v>1</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F172" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>7</v>
       </c>
@@ -4190,16 +4199,16 @@
         <v>1</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F173" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>7</v>
       </c>
@@ -4210,16 +4219,16 @@
         <v>1</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F174" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>7</v>
       </c>
@@ -4230,16 +4239,16 @@
         <v>1</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>7</v>
       </c>
@@ -4250,107 +4259,107 @@
         <v>1</v>
       </c>
       <c r="D176" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>7</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>7</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C180" s="3">
+        <v>1</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>0</v>
-      </c>
-      <c r="B177" s="1" t="s">
+      <c r="F180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C181" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>8</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F178" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>8</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C179" s="3">
-        <v>1</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F179" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>8</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C180" s="3">
-        <v>1</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F180" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>8</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C181" s="3">
-        <v>1</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F181" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>8</v>
       </c>
@@ -4361,16 +4370,16 @@
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>8</v>
       </c>
@@ -4381,16 +4390,16 @@
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>8</v>
       </c>
@@ -4401,16 +4410,16 @@
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>8</v>
       </c>
@@ -4421,16 +4430,16 @@
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>8</v>
       </c>
@@ -4441,16 +4450,16 @@
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F186" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>8</v>
       </c>
@@ -4461,16 +4470,16 @@
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>8</v>
       </c>
@@ -4481,16 +4490,16 @@
         <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F188" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>8</v>
       </c>
@@ -4501,16 +4510,16 @@
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F189" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>8</v>
       </c>
@@ -4521,16 +4530,16 @@
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F190" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>8</v>
       </c>
@@ -4541,16 +4550,16 @@
         <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>8</v>
       </c>
@@ -4561,16 +4570,16 @@
         <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F192" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>8</v>
       </c>
@@ -4581,16 +4590,16 @@
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>8</v>
       </c>
@@ -4601,16 +4610,16 @@
         <v>1</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>8</v>
       </c>
@@ -4621,16 +4630,16 @@
         <v>1</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>8</v>
       </c>
@@ -4641,16 +4650,16 @@
         <v>1</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>8</v>
       </c>
@@ -4661,16 +4670,16 @@
         <v>1</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F197" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>8</v>
       </c>
@@ -4681,16 +4690,16 @@
         <v>1</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F198" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>8</v>
       </c>
@@ -4701,16 +4710,16 @@
         <v>1</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F199" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>8</v>
       </c>
@@ -4721,16 +4730,16 @@
         <v>1</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F200" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>8</v>
       </c>
@@ -4741,23 +4750,103 @@
         <v>1</v>
       </c>
       <c r="D201" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>8</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>8</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C203" s="3">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F203" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>8</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>8</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C205" s="3">
+        <v>1</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F201" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>0</v>
-      </c>
-      <c r="B202" s="1" t="s">
+      <c r="F205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>0</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C202" s="3">
+      <c r="C206" s="3">
         <v>16</v>
       </c>
     </row>

--- a/Experiment/Orders_PILOT/PAR01_RUN04.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN04.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\OneDrive - The University of Western Ontario\3DFaces_MD_2020\Scanning\Task\Scan Orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\AppData\Local\GitHubDesktop\app-2.9.0\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BD4D77-5837-4991-A7FC-DD70E4D9C512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB754AE-64C6-4B61-9271-F95CF30C6AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07BF48E2-6ED9-4E46-8EF2-A48808502AF9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="60">
   <si>
     <t>Trial</t>
   </si>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D52182-6637-46A4-90D9-371716FEC978}">
   <dimension ref="A1:R206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131:E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,6 +660,9 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
@@ -685,6 +688,9 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
@@ -710,6 +716,9 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
@@ -735,6 +744,9 @@
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
@@ -760,6 +772,9 @@
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
@@ -785,6 +800,9 @@
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
@@ -810,6 +828,9 @@
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
@@ -835,6 +856,9 @@
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
@@ -860,6 +884,9 @@
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
@@ -885,6 +912,9 @@
       <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
@@ -910,6 +940,9 @@
       <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
@@ -935,6 +968,9 @@
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
@@ -960,6 +996,9 @@
       <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
@@ -985,6 +1024,9 @@
       <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
@@ -1010,6 +1052,9 @@
       <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
@@ -1035,6 +1080,9 @@
       <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
@@ -1060,6 +1108,9 @@
       <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
@@ -1085,6 +1136,9 @@
       <c r="D21" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
@@ -1110,6 +1164,9 @@
       <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
@@ -1135,6 +1192,9 @@
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
@@ -1160,6 +1220,9 @@
       <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
@@ -1185,6 +1248,9 @@
       <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
@@ -1210,6 +1276,9 @@
       <c r="D26" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
@@ -1235,6 +1304,9 @@
       <c r="D27" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
@@ -3419,7 +3491,9 @@
       <c r="D131" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E131" s="1"/>
+      <c r="E131" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
@@ -3437,7 +3511,9 @@
       <c r="D132" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E132" s="1"/>
+      <c r="E132" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
@@ -3455,7 +3531,9 @@
       <c r="D133" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E133" s="1"/>
+      <c r="E133" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
@@ -3473,7 +3551,9 @@
       <c r="D134" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E134" s="1"/>
+      <c r="E134" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
@@ -3491,7 +3571,9 @@
       <c r="D135" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E135" s="1"/>
+      <c r="E135" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F135" t="b">
         <v>0</v>
       </c>
@@ -3509,7 +3591,9 @@
       <c r="D136" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E136" s="1"/>
+      <c r="E136" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
@@ -3527,6 +3611,9 @@
       <c r="D137" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E137" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
@@ -3544,7 +3631,9 @@
       <c r="D138" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E138" s="1"/>
+      <c r="E138" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
@@ -3562,7 +3651,9 @@
       <c r="D139" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E139" s="1"/>
+      <c r="E139" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
@@ -3580,7 +3671,9 @@
       <c r="D140" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E140" s="1"/>
+      <c r="E140" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
@@ -3598,7 +3691,9 @@
       <c r="D141" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E141" s="1"/>
+      <c r="E141" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
@@ -3616,7 +3711,9 @@
       <c r="D142" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E142" s="1"/>
+      <c r="E142" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
@@ -3634,7 +3731,9 @@
       <c r="D143" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E143" s="1"/>
+      <c r="E143" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
@@ -3652,7 +3751,9 @@
       <c r="D144" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E144" s="1"/>
+      <c r="E144" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F144" t="b">
         <v>0</v>
       </c>
@@ -3670,7 +3771,9 @@
       <c r="D145" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E145" s="1"/>
+      <c r="E145" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F145" t="b">
         <v>1</v>
       </c>
@@ -3688,7 +3791,9 @@
       <c r="D146" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E146" s="1"/>
+      <c r="E146" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F146" t="b">
         <v>0</v>
       </c>
@@ -3706,7 +3811,9 @@
       <c r="D147" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E147" s="1"/>
+      <c r="E147" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
@@ -3724,7 +3831,9 @@
       <c r="D148" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E148" s="1"/>
+      <c r="E148" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F148" t="b">
         <v>0</v>
       </c>
@@ -3742,7 +3851,9 @@
       <c r="D149" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E149" s="1"/>
+      <c r="E149" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
@@ -3760,7 +3871,9 @@
       <c r="D150" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E150" s="1"/>
+      <c r="E150" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
@@ -3778,7 +3891,9 @@
       <c r="D151" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E151" s="1"/>
+      <c r="E151" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F151" t="b">
         <v>0</v>
       </c>
@@ -3796,7 +3911,9 @@
       <c r="D152" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E152" s="1"/>
+      <c r="E152" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F152" t="b">
         <v>0</v>
       </c>
@@ -3814,7 +3931,9 @@
       <c r="D153" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E153" s="1"/>
+      <c r="E153" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F153" t="b">
         <v>0</v>
       </c>
@@ -3832,7 +3951,9 @@
       <c r="D154" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E154" s="1"/>
+      <c r="E154" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F154" t="b">
         <v>0</v>
       </c>

--- a/Experiment/Orders_PILOT/PAR01_RUN04.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN04.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\AppData\Local\GitHubDesktop\app-2.9.0\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD17240C-5F13-4567-A528-995089D9863E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -59,147 +51,9 @@
     <t>MonocL</t>
   </si>
   <si>
-    <t>Face8_L.jpg</t>
-  </si>
-  <si>
-    <t>Face19_L.jpg</t>
-  </si>
-  <si>
-    <t>Face23_L.jpg</t>
-  </si>
-  <si>
-    <t>Face11_L.jpg</t>
-  </si>
-  <si>
-    <t>Face17_L.jpg</t>
-  </si>
-  <si>
-    <t>Face16_L.jpg</t>
-  </si>
-  <si>
-    <t>Face21_L.jpg</t>
-  </si>
-  <si>
-    <t>Face15_L.jpg</t>
-  </si>
-  <si>
-    <t>Face10_L.jpg</t>
-  </si>
-  <si>
-    <t>Face7_L.jpg</t>
-  </si>
-  <si>
-    <t>Face14_L.jpg</t>
-  </si>
-  <si>
-    <t>Face18_L.jpg</t>
-  </si>
-  <si>
-    <t>Face20_L.jpg</t>
-  </si>
-  <si>
-    <t>Face1_L.jpg</t>
-  </si>
-  <si>
-    <t>Face9_L.jpg</t>
-  </si>
-  <si>
-    <t>Face4_L.jpg</t>
-  </si>
-  <si>
-    <t>Face12_L.jpg</t>
-  </si>
-  <si>
-    <t>Face13_L.jpg</t>
-  </si>
-  <si>
-    <t>Face6_L.jpg</t>
-  </si>
-  <si>
-    <t>Face3_L.jpg</t>
-  </si>
-  <si>
-    <t>Face2_L.jpg</t>
-  </si>
-  <si>
-    <t>Face5_L.jpg</t>
-  </si>
-  <si>
-    <t>Face22_L.jpg</t>
-  </si>
-  <si>
     <t>Pseudo</t>
   </si>
   <si>
-    <t>Face17_R.jpg</t>
-  </si>
-  <si>
-    <t>Face9_R.jpg</t>
-  </si>
-  <si>
-    <t>Face20_R.jpg</t>
-  </si>
-  <si>
-    <t>Face8_R.jpg</t>
-  </si>
-  <si>
-    <t>Face23_R.jpg</t>
-  </si>
-  <si>
-    <t>Face11_R.jpg</t>
-  </si>
-  <si>
-    <t>Face1_R.jpg</t>
-  </si>
-  <si>
-    <t>Face12_R.jpg</t>
-  </si>
-  <si>
-    <t>Face22_R.jpg</t>
-  </si>
-  <si>
-    <t>Face18_R.jpg</t>
-  </si>
-  <si>
-    <t>Face13_R.jpg</t>
-  </si>
-  <si>
-    <t>Face2_R.jpg</t>
-  </si>
-  <si>
-    <t>Face16_R.jpg</t>
-  </si>
-  <si>
-    <t>Face10_R.jpg</t>
-  </si>
-  <si>
-    <t>Face21_R.jpg</t>
-  </si>
-  <si>
-    <t>Face5_R.jpg</t>
-  </si>
-  <si>
-    <t>Face7_R.jpg</t>
-  </si>
-  <si>
-    <t>Face19_R.jpg</t>
-  </si>
-  <si>
-    <t>Face15_R.jpg</t>
-  </si>
-  <si>
-    <t>Face4_R.jpg</t>
-  </si>
-  <si>
-    <t>Face14_R.jpg</t>
-  </si>
-  <si>
-    <t>Face6_R.jpg</t>
-  </si>
-  <si>
-    <t>Face3_R.jpg</t>
-  </si>
-  <si>
     <t>3D</t>
   </si>
   <si>
@@ -209,22 +63,160 @@
     <t>CUE</t>
   </si>
   <si>
-    <t>UncoverCue.jpg</t>
-  </si>
-  <si>
-    <t>CoverCue.jpg</t>
-  </si>
-  <si>
     <t>FALSE</t>
   </si>
   <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>CoverCue.png</t>
+  </si>
+  <si>
+    <t>Face11_L.png</t>
+  </si>
+  <si>
+    <t>Face8_L.png</t>
+  </si>
+  <si>
+    <t>Face1_L.png</t>
+  </si>
+  <si>
+    <t>Face23_L.png</t>
+  </si>
+  <si>
+    <t>Face14_L.png</t>
+  </si>
+  <si>
+    <t>Face17_L.png</t>
+  </si>
+  <si>
+    <t>Face4_L.png</t>
+  </si>
+  <si>
+    <t>Face21_L.png</t>
+  </si>
+  <si>
+    <t>Face19_L.png</t>
+  </si>
+  <si>
+    <t>Face9_L.png</t>
+  </si>
+  <si>
+    <t>Face18_L.png</t>
+  </si>
+  <si>
+    <t>Face7_L.png</t>
+  </si>
+  <si>
+    <t>Face3_L.png</t>
+  </si>
+  <si>
+    <t>Face16_L.png</t>
+  </si>
+  <si>
+    <t>Face5_L.png</t>
+  </si>
+  <si>
+    <t>Face22_L.png</t>
+  </si>
+  <si>
+    <t>Face12_L.png</t>
+  </si>
+  <si>
+    <t>Face13_L.png</t>
+  </si>
+  <si>
+    <t>Face2_L.png</t>
+  </si>
+  <si>
+    <t>Face15_L.png</t>
+  </si>
+  <si>
+    <t>Face10_L.png</t>
+  </si>
+  <si>
+    <t>Face6_L.png</t>
+  </si>
+  <si>
+    <t>Face20_L.png</t>
+  </si>
+  <si>
+    <t>UncoverCue.png</t>
+  </si>
+  <si>
+    <t>Face12_R.png</t>
+  </si>
+  <si>
+    <t>Face21_R.png</t>
+  </si>
+  <si>
+    <t>Face18_R.png</t>
+  </si>
+  <si>
+    <t>Face7_R.png</t>
+  </si>
+  <si>
+    <t>Face14_R.png</t>
+  </si>
+  <si>
+    <t>Face15_R.png</t>
+  </si>
+  <si>
+    <t>Face4_R.png</t>
+  </si>
+  <si>
+    <t>Face17_R.png</t>
+  </si>
+  <si>
+    <t>Face10_R.png</t>
+  </si>
+  <si>
+    <t>Face8_R.png</t>
+  </si>
+  <si>
+    <t>Face1_R.png</t>
+  </si>
+  <si>
+    <t>Face9_R.png</t>
+  </si>
+  <si>
+    <t>Face5_R.png</t>
+  </si>
+  <si>
+    <t>Face6_R.png</t>
+  </si>
+  <si>
+    <t>Face19_R.png</t>
+  </si>
+  <si>
+    <t>Face16_R.png</t>
+  </si>
+  <si>
+    <t>Face13_R.png</t>
+  </si>
+  <si>
+    <t>Face2_R.png</t>
+  </si>
+  <si>
+    <t>Face3_R.png</t>
+  </si>
+  <si>
+    <t>Face11_R.png</t>
+  </si>
+  <si>
+    <t>Face23_R.png</t>
+  </si>
+  <si>
+    <t>Face22_R.png</t>
+  </si>
+  <si>
+    <t>Face20_R.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,25 +575,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection sqref="A1:Q206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,27 +613,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -652,7 +644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -663,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -680,7 +672,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -691,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -708,7 +700,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -719,10 +711,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -736,7 +728,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -747,10 +739,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -764,7 +756,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -775,10 +767,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -792,7 +784,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -803,10 +795,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -820,7 +812,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -831,10 +823,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -848,7 +840,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -859,10 +851,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -876,7 +868,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -887,10 +879,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -904,7 +896,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -915,10 +907,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -932,7 +924,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -943,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -960,7 +952,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -971,10 +963,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -988,7 +980,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -999,10 +991,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1016,7 +1008,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1044,7 +1036,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1055,10 +1047,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1072,7 +1064,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1100,7 +1092,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1128,7 +1120,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1139,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1156,7 +1148,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1167,10 +1159,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1184,7 +1176,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1195,10 +1187,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1212,7 +1204,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1223,10 +1215,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1240,7 +1232,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1251,10 +1243,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1268,7 +1260,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1279,10 +1271,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1296,7 +1288,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1307,10 +1299,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -1324,27 +1316,27 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C28" s="3">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1355,12 +1347,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -1369,7 +1361,7 @@
         <v>39</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1381,21 +1373,21 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1407,12 +1399,12 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -1421,7 +1413,7 @@
         <v>41</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1433,21 +1425,21 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1459,21 +1451,21 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
@@ -1485,21 +1477,21 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1511,21 +1503,21 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1537,21 +1529,21 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1563,21 +1555,21 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1589,21 +1581,21 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1615,21 +1607,21 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1641,21 +1633,21 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1667,21 +1659,21 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1693,18 +1685,18 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>29</v>
@@ -1719,21 +1711,21 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -1745,21 +1737,21 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1771,21 +1763,21 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1797,21 +1789,21 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1823,21 +1815,21 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -1849,18 +1841,18 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>27</v>
@@ -1875,21 +1867,21 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -1901,21 +1893,21 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -1927,18 +1919,18 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>30</v>
@@ -1953,21 +1945,21 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -1979,7 +1971,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -1990,32 +1982,32 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -2024,78 +2016,78 @@
         <v>27</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -2104,18 +2096,18 @@
         <v>29</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
@@ -2124,64 +2116,64 @@
         <v>29</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="3">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>39</v>
@@ -2190,18 +2182,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>41</v>
@@ -2210,212 +2202,212 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -2424,53 +2416,53 @@
         <v>30</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>3</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0</v>
       </c>
@@ -2481,72 +2473,72 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
@@ -2561,112 +2553,112 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
@@ -2681,192 +2673,192 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
@@ -2881,12 +2873,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
@@ -2901,67 +2893,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>4</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>4</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0</v>
       </c>
@@ -2974,98 +2966,98 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>30</v>
@@ -3074,38 +3066,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>27</v>
@@ -3114,12 +3106,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
@@ -3128,18 +3120,18 @@
         <v>41</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
@@ -3148,138 +3140,138 @@
         <v>41</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F113" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
@@ -3288,104 +3280,104 @@
         <v>39</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>5</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>29</v>
@@ -3394,67 +3386,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>5</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C127" s="3">
         <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>5</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3465,212 +3457,212 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>6</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>6</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>6</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>6</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F139" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
@@ -3685,72 +3677,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>6</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
@@ -3765,172 +3757,172 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C149" s="3">
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>6</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>6</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C153" s="3">
         <v>1</v>
@@ -3945,27 +3937,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>0</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C154" s="3">
         <v>5</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F154" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>0</v>
       </c>
@@ -3978,7 +3970,7 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>7</v>
       </c>
@@ -3989,16 +3981,16 @@
         <v>1</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F156" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>7</v>
       </c>
@@ -4009,16 +4001,16 @@
         <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F157" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>7</v>
       </c>
@@ -4038,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>7</v>
       </c>
@@ -4049,96 +4041,96 @@
         <v>1</v>
       </c>
       <c r="D159" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F161" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F163" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>7</v>
       </c>
@@ -4149,16 +4141,16 @@
         <v>1</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F164" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>7</v>
       </c>
@@ -4169,16 +4161,16 @@
         <v>1</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F165" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>7</v>
       </c>
@@ -4189,16 +4181,16 @@
         <v>1</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F166" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>7</v>
       </c>
@@ -4209,16 +4201,16 @@
         <v>1</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F167" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>7</v>
       </c>
@@ -4238,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>7</v>
       </c>
@@ -4249,56 +4241,56 @@
         <v>1</v>
       </c>
       <c r="D169" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>7</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="3">
-        <v>1</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>7</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F171" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>7</v>
       </c>
@@ -4318,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>7</v>
       </c>
@@ -4329,16 +4321,16 @@
         <v>1</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F173" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>7</v>
       </c>
@@ -4349,16 +4341,16 @@
         <v>1</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F174" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>7</v>
       </c>
@@ -4369,16 +4361,16 @@
         <v>1</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>7</v>
       </c>
@@ -4389,16 +4381,16 @@
         <v>1</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F176" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>7</v>
       </c>
@@ -4409,16 +4401,16 @@
         <v>1</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F177" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>7</v>
       </c>
@@ -4429,16 +4421,16 @@
         <v>1</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F178" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>7</v>
       </c>
@@ -4449,36 +4441,36 @@
         <v>1</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C180" s="3">
         <v>5</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>0</v>
       </c>
@@ -4491,12 +4483,12 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>8</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
@@ -4505,18 +4497,18 @@
         <v>29</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>8</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C183" s="3">
         <v>1</v>
@@ -4525,358 +4517,358 @@
         <v>27</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>8</v>
       </c>
       <c r="B184" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" s="3">
+        <v>1</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C184" s="3">
-        <v>1</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F184" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>8</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C185" s="3">
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>8</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C186" s="3">
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>8</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C187" s="3">
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>8</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" s="3">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F188" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>8</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C188" s="3">
-        <v>1</v>
-      </c>
-      <c r="D188" s="1" t="s">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>8</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>8</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="C189" s="3">
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>8</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C190" s="3">
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E190" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>8</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" s="3">
+        <v>1</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F190" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>8</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C191" s="3">
-        <v>1</v>
-      </c>
-      <c r="D191" s="1" t="s">
+      <c r="F191" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>8</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>8</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C192" s="3">
-        <v>1</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E192" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>8</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C193" s="3">
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>8</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C194" s="3">
         <v>1</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E194" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>8</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" s="3">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>8</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" s="3">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>8</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" s="3">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F194" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>8</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C195" s="3">
-        <v>1</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>8</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C196" s="3">
-        <v>1</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E196" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F196" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>8</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C197" s="3">
-        <v>1</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F197" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>8</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C198" s="3">
         <v>1</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>8</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C199" s="3">
         <v>1</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>8</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C200" s="3">
         <v>1</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>8</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C201" s="3">
         <v>1</v>
@@ -4885,93 +4877,93 @@
         <v>30</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>8</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C202" s="3">
         <v>1</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>8</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C203" s="3">
         <v>1</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>8</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C204" s="3">
         <v>1</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E204" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>8</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" s="3">
+        <v>1</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F204" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>8</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C205" s="3">
-        <v>1</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E205" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>0</v>
       </c>
